--- a/7RMartSuperMarket/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarket/src/test/resources/TestData.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhi\git\ProjectDemo\7RMartSupermarket\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10420270-8C85-44E4-9347-D03111F3AEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B345727-642A-4A1E-94C1-F64E0B19C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{5F4114DC-C7CB-4AE4-AEA9-A6E573D4E455}"/>
+    <workbookView visibility="hidden" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" firstSheet="3" activeTab="3" xr2:uid="{5F4114DC-C7CB-4AE4-AEA9-A6E573D4E455}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <sheet name="CategoryPage" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/7RMartSuperMarket/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarket/src/test/resources/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B345727-642A-4A1E-94C1-F64E0B19C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhi\git\7RMartSupermarket\7RMartSuperMarket\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC7CAA1-3915-4379-A46B-27BE78B676B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" firstSheet="3" activeTab="3" xr2:uid="{5F4114DC-C7CB-4AE4-AEA9-A6E573D4E455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="4" xr2:uid="{5F4114DC-C7CB-4AE4-AEA9-A6E573D4E455}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <sheet name="CategoryPage" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>UserName</t>
   </si>
@@ -118,6 +122,12 @@
   </si>
   <si>
     <t>New  news on recruitment from Obsqura Automation Session</t>
+  </si>
+  <si>
+    <t>Expected Alert Message</t>
+  </si>
+  <si>
+    <t>×\nAlert!\nCategory Deleted Successfully</t>
   </si>
 </sst>
 </file>
@@ -623,7 +633,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B2"/>
+      <selection activeCell="D3" activeCellId="1" sqref="D2 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C19F11-3236-4A15-B8E3-A1DFC866F383}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,10 +741,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1066F8D-BA57-406A-9207-55C5B59F3749}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,9 +752,10 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="50.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -757,8 +768,11 @@
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -770,6 +784,9 @@
       </c>
       <c r="D2" t="s">
         <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/7RMartSuperMarket/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarket/src/test/resources/TestData.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhi\git\7RMartSupermarket\7RMartSuperMarket\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC7CAA1-3915-4379-A46B-27BE78B676B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C8AC438C-40FF-4DB6-AD79-632BEF34AA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="4" xr2:uid="{5F4114DC-C7CB-4AE4-AEA9-A6E573D4E455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{5F4114DC-C7CB-4AE4-AEA9-A6E573D4E455}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <sheet name="CategoryPage" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:D22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,9 +96,6 @@
     <t>�\nAlert!\nSub Category Created Successfully</t>
   </si>
   <si>
-    <t>Vedha Baby Food12</t>
-  </si>
-  <si>
     <t>Vedha BabyFood</t>
   </si>
   <si>
@@ -128,6 +121,9 @@
   </si>
   <si>
     <t>×\nAlert!\nCategory Deleted Successfully</t>
+  </si>
+  <si>
+    <t>Dhedhu baby Toy Boy</t>
   </si>
 </sst>
 </file>
@@ -633,14 +629,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="D2 D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -674,7 +670,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C19F11-3236-4A15-B8E3-A1DFC866F383}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -705,13 +701,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -722,13 +718,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1066F8D-BA57-406A-9207-55C5B59F3749}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -769,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -786,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
